--- a/store/layout/report/Item_Wise_Department_Issue.xlsx
+++ b/store/layout/report/Item_Wise_Department_Issue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Department</t>
   </si>
@@ -47,52 +47,34 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>KEY BOARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key Board </t>
-  </si>
-  <si>
-    <t>Pcs</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Quality Assurance</t>
-  </si>
-  <si>
-    <t>QCO</t>
-  </si>
-  <si>
-    <t>Packing</t>
-  </si>
-  <si>
-    <t>Cutting</t>
-  </si>
-  <si>
-    <t>Production: Level-03</t>
-  </si>
-  <si>
-    <t>Production: Level-04</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>Maintenance-03</t>
-  </si>
-  <si>
-    <t>Production</t>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Stationary</t>
+  </si>
+  <si>
+    <t>Ball Pen (Black)</t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Ball Pen (rad)</t>
+  </si>
+  <si>
+    <t>Ball Pen Green</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Fluid Pen</t>
+  </si>
+  <si>
+    <t>Gel Pen</t>
   </si>
 </sst>
 </file>
@@ -432,7 +414,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,30 +471,30 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>800.0</v>
+        <v>5.0</v>
       </c>
       <c r="H2">
-        <v>800.0</v>
+        <v>5.0</v>
       </c>
       <c r="I2">
-        <v>1600.0</v>
+        <v>70.0</v>
       </c>
       <c r="J2">
-        <v>7.41</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -521,339 +503,115 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>800.0</v>
+        <v>5.0</v>
       </c>
       <c r="H3">
-        <v>800.0</v>
+        <v>5.0</v>
       </c>
       <c r="I3">
-        <v>800.0</v>
+        <v>60.0</v>
       </c>
       <c r="J3">
-        <v>3.7</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>800.0</v>
+        <v>4.5</v>
       </c>
       <c r="H4">
-        <v>800.0</v>
+        <v>4.5</v>
       </c>
       <c r="I4">
-        <v>800.0</v>
+        <v>211.5</v>
       </c>
       <c r="J4">
-        <v>3.7</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>800.0</v>
+        <v>116.0</v>
       </c>
       <c r="H5">
-        <v>800.0</v>
+        <v>116.0</v>
       </c>
       <c r="I5">
-        <v>3200.0</v>
+        <v>812.0</v>
       </c>
       <c r="J5">
-        <v>14.81</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>800.0</v>
+        <v>9.0</v>
       </c>
       <c r="H6">
-        <v>800.0</v>
+        <v>9.0</v>
       </c>
       <c r="I6">
-        <v>4000.0</v>
+        <v>72.0</v>
       </c>
       <c r="J6">
-        <v>18.52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>800.0</v>
-      </c>
-      <c r="H7">
-        <v>800.0</v>
-      </c>
-      <c r="I7">
-        <v>1600.0</v>
-      </c>
-      <c r="J7">
-        <v>7.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>800.0</v>
-      </c>
-      <c r="H8">
-        <v>800.0</v>
-      </c>
-      <c r="I8">
-        <v>2400.0</v>
-      </c>
-      <c r="J8">
-        <v>11.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>800.0</v>
-      </c>
-      <c r="H9">
-        <v>800.0</v>
-      </c>
-      <c r="I9">
-        <v>800.0</v>
-      </c>
-      <c r="J9">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>800.0</v>
-      </c>
-      <c r="H10">
-        <v>800.0</v>
-      </c>
-      <c r="I10">
-        <v>800.0</v>
-      </c>
-      <c r="J10">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>800.0</v>
-      </c>
-      <c r="H11">
-        <v>800.0</v>
-      </c>
-      <c r="I11">
-        <v>4000.0</v>
-      </c>
-      <c r="J11">
-        <v>18.52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>800.0</v>
-      </c>
-      <c r="H12">
-        <v>800.0</v>
-      </c>
-      <c r="I12">
-        <v>800.0</v>
-      </c>
-      <c r="J12">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>800.0</v>
-      </c>
-      <c r="H13">
-        <v>800.0</v>
-      </c>
-      <c r="I13">
-        <v>800.0</v>
-      </c>
-      <c r="J13">
-        <v>3.7</v>
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>
